--- a/data/trans_orig/IP2501_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP2501_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2229C49-4165-4B02-83E1-B57FC14D9157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C49AA4B5-DEC0-450D-A9B4-E92AB412848A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{7C362C0F-B40F-4A29-B20B-5AF0219E04B6}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{39C83585-B3C9-45B8-9393-E7709FA7F001}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,6 +68,36 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
@@ -128,36 +158,6 @@
     <t>8,34%</t>
   </si>
   <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>50,97%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
     <t>Más de 3h</t>
   </si>
   <si>
@@ -191,9 +191,144 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
     <t>49,29%</t>
   </si>
   <si>
@@ -248,30 +383,6 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
     <t>2,51%</t>
   </si>
   <si>
@@ -299,115 +410,31 @@
     <t>4,33%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>42,65%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>47,12%</t>
@@ -459,33 +486,6 @@
   </si>
   <si>
     <t>10,89%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -898,7 +898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF829590-83D5-4624-BA76-22D5A72FDD62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888182BE-3CD9-427E-B2AA-21D8A0BF444D}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1016,10 +1016,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="D4" s="7">
-        <v>44249</v>
+        <v>62870</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1031,10 +1031,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="I4" s="7">
-        <v>33381</v>
+        <v>58111</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1046,10 +1046,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="N4" s="7">
-        <v>77630</v>
+        <v>120981</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1067,10 +1067,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="D5" s="7">
-        <v>7363</v>
+        <v>44249</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1082,10 +1082,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I5" s="7">
-        <v>5255</v>
+        <v>33381</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1097,10 +1097,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="N5" s="7">
-        <v>12618</v>
+        <v>77630</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1118,10 +1118,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7">
-        <v>62870</v>
+        <v>7363</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1133,10 +1133,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="I6" s="7">
-        <v>58111</v>
+        <v>5255</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1148,10 +1148,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="N6" s="7">
-        <v>120981</v>
+        <v>12618</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1273,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7">
-        <v>198506</v>
+        <v>79539</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1288,10 +1288,10 @@
         <v>54</v>
       </c>
       <c r="H9" s="7">
-        <v>218</v>
+        <v>114</v>
       </c>
       <c r="I9" s="7">
-        <v>160552</v>
+        <v>77965</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1303,10 +1303,10 @@
         <v>57</v>
       </c>
       <c r="M9" s="7">
-        <v>461</v>
+        <v>223</v>
       </c>
       <c r="N9" s="7">
-        <v>359058</v>
+        <v>157504</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1324,10 +1324,10 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="D10" s="7">
-        <v>39998</v>
+        <v>98403</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1339,10 +1339,10 @@
         <v>63</v>
       </c>
       <c r="H10" s="7">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="I10" s="7">
-        <v>35056</v>
+        <v>92489</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1354,10 +1354,10 @@
         <v>66</v>
       </c>
       <c r="M10" s="7">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="N10" s="7">
-        <v>75054</v>
+        <v>190892</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1375,49 +1375,49 @@
         <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="D11" s="7">
-        <v>154092</v>
+        <v>22247</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>138332</v>
+        <v>18886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
-        <v>346</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>292424</v>
+        <v>41134</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1426,49 +1426,49 @@
         <v>40</v>
       </c>
       <c r="C12" s="7">
+        <v>6</v>
+      </c>
+      <c r="D12" s="7">
+        <v>4866</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
         <v>12</v>
       </c>
-      <c r="D12" s="7">
-        <v>10115</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="7">
-        <v>14</v>
-      </c>
       <c r="I12" s="7">
-        <v>11793</v>
+        <v>7807</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7">
-        <v>21907</v>
+        <v>12672</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1477,10 +1477,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1492,10 +1492,10 @@
         <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>456</v>
+        <v>280</v>
       </c>
       <c r="I13" s="7">
-        <v>345733</v>
+        <v>197147</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1507,10 +1507,10 @@
         <v>50</v>
       </c>
       <c r="M13" s="7">
-        <v>935</v>
+        <v>551</v>
       </c>
       <c r="N13" s="7">
-        <v>748443</v>
+        <v>402202</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1524,31 +1524,31 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="D14" s="7">
-        <v>98403</v>
+        <v>154092</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="I14" s="7">
-        <v>92489</v>
+        <v>138332</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1560,10 +1560,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>257</v>
+        <v>346</v>
       </c>
       <c r="N14" s="7">
-        <v>190892</v>
+        <v>292424</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -1581,10 +1581,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>243</v>
       </c>
       <c r="D15" s="7">
-        <v>22247</v>
+        <v>198506</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>97</v>
@@ -1596,10 +1596,10 @@
         <v>99</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>218</v>
       </c>
       <c r="I15" s="7">
-        <v>18886</v>
+        <v>160552</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>100</v>
@@ -1611,10 +1611,10 @@
         <v>102</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>41134</v>
+        <v>359058</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>103</v>
@@ -1632,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>79539</v>
+        <v>39998</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>106</v>
@@ -1647,10 +1647,10 @@
         <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="I16" s="7">
-        <v>77965</v>
+        <v>35056</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>109</v>
@@ -1662,10 +1662,10 @@
         <v>111</v>
       </c>
       <c r="M16" s="7">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="N16" s="7">
-        <v>157504</v>
+        <v>75054</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -1683,10 +1683,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>4866</v>
+        <v>10115</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>115</v>
@@ -1698,10 +1698,10 @@
         <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I17" s="7">
-        <v>7807</v>
+        <v>11793</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>118</v>
@@ -1713,10 +1713,10 @@
         <v>120</v>
       </c>
       <c r="M17" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N17" s="7">
-        <v>12672</v>
+        <v>21907</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>121</v>
@@ -1734,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D18" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>456</v>
       </c>
       <c r="I18" s="7">
-        <v>197147</v>
+        <v>345733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1764,10 +1764,10 @@
         <v>50</v>
       </c>
       <c r="M18" s="7">
-        <v>551</v>
+        <v>935</v>
       </c>
       <c r="N18" s="7">
-        <v>402202</v>
+        <v>748443</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1787,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>452</v>
+        <v>405</v>
       </c>
       <c r="D19" s="7">
-        <v>341159</v>
+        <v>296501</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>124</v>
@@ -1802,10 +1802,10 @@
         <v>126</v>
       </c>
       <c r="H19" s="7">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="I19" s="7">
-        <v>286421</v>
+        <v>274408</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>127</v>
@@ -1817,10 +1817,10 @@
         <v>129</v>
       </c>
       <c r="M19" s="7">
-        <v>858</v>
+        <v>810</v>
       </c>
       <c r="N19" s="7">
-        <v>627579</v>
+        <v>570909</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>130</v>
@@ -1829,7 +1829,7 @@
         <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,49 +1838,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="D20" s="7">
-        <v>69608</v>
+        <v>341159</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H20" s="7">
-        <v>85</v>
+        <v>406</v>
       </c>
       <c r="I20" s="7">
-        <v>59197</v>
+        <v>286421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
-        <v>180</v>
+        <v>858</v>
       </c>
       <c r="N20" s="7">
-        <v>128805</v>
+        <v>627579</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,10 +1889,10 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>405</v>
+        <v>95</v>
       </c>
       <c r="D21" s="7">
-        <v>296501</v>
+        <v>69608</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>141</v>
@@ -1904,10 +1904,10 @@
         <v>143</v>
       </c>
       <c r="H21" s="7">
-        <v>405</v>
+        <v>85</v>
       </c>
       <c r="I21" s="7">
-        <v>274408</v>
+        <v>59197</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>144</v>
@@ -1919,10 +1919,10 @@
         <v>146</v>
       </c>
       <c r="M21" s="7">
-        <v>810</v>
+        <v>180</v>
       </c>
       <c r="N21" s="7">
-        <v>570909</v>
+        <v>128805</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>147</v>
@@ -1967,7 +1967,7 @@
         <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="M22" s="7">
         <v>54</v>
